--- a/data/case2_DC.xlsx
+++ b/data/case2_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5985D3-AD9D-44FB-BE34-66100AFAB230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33246C-0EDD-446F-9091-583CB8578F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
